--- a/Ship Data.xlsx
+++ b/Ship Data.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Ship Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,14 +413,39 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>機番</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>エチロン</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>228J</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>09C</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Ship Data.xlsx
+++ b/Ship Data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Ship Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ship Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -424,24 +424,24 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>機番</t>
+          <t>[機番]</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>エチロン</t>
+          <t>[エチロン]</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>228J</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>09C</t>
+          <t>234</t>
         </is>
       </c>
     </row>

--- a/Ship Data.xlsx
+++ b/Ship Data.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>227J</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>09C</t>
         </is>
       </c>
     </row>
